--- a/WorkshopDeCaracteristicas/Definição de Baselines.xlsx
+++ b/WorkshopDeCaracteristicas/Definição de Baselines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -716,7 +716,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,9 +755,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -774,10 +770,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +804,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,59 +1251,59 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
@@ -1325,72 +1326,72 @@
       <c r="A10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1405,20 +1406,20 @@
     </row>
     <row r="14" spans="1:15" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
@@ -1427,15 +1428,15 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -1444,15 +1445,15 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1461,15 +1462,15 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -1478,15 +1479,15 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="44"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1495,15 +1496,15 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1512,15 +1513,15 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
@@ -1724,14 +1725,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,361 +1742,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>3</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>4</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>9</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>10</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>15</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>30</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>31</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>32</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>33</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>35</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>36</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C18" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <v>15</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="35" t="s">
+    <row r="19" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>37</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="35" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>39</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>35</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>27</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="35" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>40</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>30</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="35" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>42</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>29</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>32</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="35" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>43</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <v>33</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="35" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>45</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>37</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="35" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>50</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>39</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="35" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>52</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <v>21</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>40</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="35" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>55</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>42</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>43</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
-        <v>45</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
-        <v>52</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
-        <v>55</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D57">
-    <sortCondition ref="D1"/>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14 D15:D25">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D27">
       <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2108,290 +2134,321 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>50</v>
-      </c>
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>8</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>11</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>14</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>19</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>20</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>34</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>38</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>41</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>44</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>46</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>47</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>48</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>51</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>53</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="B20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>54</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>47</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="B21" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>22</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>44</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>38</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>14</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>11</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <v>53</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
-        <v>28</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>54</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>16</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>19</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>46</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <v>20</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>8</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>41</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <v>1</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:D21">
+    <sortCondition ref="A2"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4 D18:D19 D6:D7 D9:D14 D15 D16:D17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5:D6 D8:D21 D2:D3">
       <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2401,223 +2458,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="22" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3" style="21" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>6</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>7</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>12</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>17</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>25</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>26</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>49</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>48</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>51</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>31</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>34</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>65</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D11:D14">
-      <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>